--- a/excelmatrix/export1.xlsx
+++ b/excelmatrix/export1.xlsx
@@ -418,7 +418,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:4" r="1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row spans="1:4" r="2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row spans="1:4" r="3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -460,7 +460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row spans="1:4" r="4">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -474,7 +474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row spans="1:4" r="5">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>16</v>
       </c>

--- a/excelmatrix/export1.xlsx
+++ b/excelmatrix/export1.xlsx
@@ -28,52 +28,52 @@
     <t>1d</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Col_1</t>
-  </si>
-  <si>
-    <t>Col_2</t>
-  </si>
-  <si>
-    <t>Col_3</t>
-  </si>
-  <si>
-    <t>Row_1</t>
-  </si>
-  <si>
-    <t>w1</t>
-  </si>
-  <si>
-    <t>w2</t>
-  </si>
-  <si>
-    <t>u3</t>
-  </si>
-  <si>
-    <t>Row_2</t>
-  </si>
-  <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>x3</t>
-  </si>
-  <si>
-    <t>Row_3</t>
-  </si>
-  <si>
-    <t>y1</t>
-  </si>
-  <si>
-    <t>y2</t>
-  </si>
-  <si>
-    <t>y3</t>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>4c</t>
+  </si>
+  <si>
+    <t>4d</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t>5c</t>
+  </si>
+  <si>
+    <t>5d</t>
   </si>
 </sst>
 </file>
@@ -418,73 +418,73 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row spans="1:4" r="1">
+      <c t="s" r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row spans="1:4" r="2">
+      <c t="s" r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c t="s" r="B2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c t="s" r="C2">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c t="s" r="D2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row spans="1:4" r="3">
+      <c t="s" r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c t="s" r="B3">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c t="s" r="C3">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c t="s" r="D3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row spans="1:4" r="4">
+      <c t="s" r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c t="s" r="B4">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c t="s" r="C4">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c t="s" r="D4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row spans="1:4" r="5">
+      <c t="s" r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c t="s" r="B5">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c t="s" r="C5">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c t="s" r="D5">
         <v>19</v>
       </c>
     </row>
